--- a/springboot-generic-excel-processor/src/main/resources/store/person.xlsx
+++ b/springboot-generic-excel-processor/src/main/resources/store/person.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>radha@singh</t>
+  </si>
+  <si>
+    <t>sonu</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +329,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -333,12 +338,12 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2.3456789E7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -347,12 +352,12 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>234356.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -361,12 +366,12 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>6.7890456E7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -375,12 +380,12 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>6789056.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -389,8 +394,20 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>4567890.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>6.789879789E9</v>
       </c>
     </row>
   </sheetData>
